--- a/input/meditation-visuals_filenames.xlsx
+++ b/input/meditation-visuals_filenames.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srikanthashish/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CAJAL/2023/Portfolio/Projects/meditation-visuals/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F313D95-CF53-B04F-8449-99C1CF896426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DBBEB0-E6A1-2142-B5EE-407704309BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{E5A2A254-6F76-6240-9CF3-F0BADFD0DED2}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{E5A2A254-6F76-6240-9CF3-F0BADFD0DED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>&lt;File 9&gt;</t>
+  </si>
+  <si>
+    <t>session</t>
   </si>
 </sst>
 </file>
@@ -445,17 +445,17 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -503,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -511,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -519,7 +519,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -527,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/input/meditation-visuals_filenames.xlsx
+++ b/input/meditation-visuals_filenames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CAJAL/2023/Portfolio/Projects/meditation-visuals/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DBBEB0-E6A1-2142-B5EE-407704309BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A34E7-B8F6-A14D-88C5-2F0E93657F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{E5A2A254-6F76-6240-9CF3-F0BADFD0DED2}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <t>&lt;File 9&gt;</t>
   </si>
   <si>
-    <t>session</t>
+    <t>ses</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/input/meditation-visuals_filenames.xlsx
+++ b/input/meditation-visuals_filenames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CAJAL/2023/Portfolio/Projects/meditation-visuals/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A34E7-B8F6-A14D-88C5-2F0E93657F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB815EA5-CBAD-7C43-B441-3C63A80A59B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{E5A2A254-6F76-6240-9CF3-F0BADFD0DED2}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <t>&lt;File 9&gt;</t>
   </si>
   <si>
-    <t>ses</t>
+    <t>session</t>
   </si>
 </sst>
 </file>

--- a/input/meditation-visuals_filenames.xlsx
+++ b/input/meditation-visuals_filenames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CAJAL/2023/Portfolio/Projects/meditation-visuals/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB815EA5-CBAD-7C43-B441-3C63A80A59B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0724AD-C0CA-C94D-A6A8-6F28439B985E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{E5A2A254-6F76-6240-9CF3-F0BADFD0DED2}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <t>&lt;File 9&gt;</t>
   </si>
   <si>
-    <t>session</t>
+    <t>ses</t>
   </si>
 </sst>
 </file>
